--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5475"/>
+  <dimension ref="A1:C5476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93360,6 +93360,23 @@
         </is>
       </c>
     </row>
+    <row r="5476">
+      <c r="A5476" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B5476" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C5476" t="inlineStr">
+        <is>
+          <t>1.008674613431335</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5476"/>
+  <dimension ref="A1:C5477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93377,6 +93377,23 @@
         </is>
       </c>
     </row>
+    <row r="5477">
+      <c r="A5477" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B5477" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C5477" t="inlineStr">
+        <is>
+          <t>1.0062433685939218</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5477"/>
+  <dimension ref="A1:C5478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93394,6 +93394,23 @@
         </is>
       </c>
     </row>
+    <row r="5478">
+      <c r="A5478" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B5478" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C5478" t="inlineStr">
+        <is>
+          <t>1.0017854650034959</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5478"/>
+  <dimension ref="A1:C5479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93411,6 +93411,23 @@
         </is>
       </c>
     </row>
+    <row r="5479">
+      <c r="A5479" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B5479" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C5479" t="inlineStr">
+        <is>
+          <t>1.0011867777545553</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5479"/>
+  <dimension ref="A1:C5480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93428,6 +93428,23 @@
         </is>
       </c>
     </row>
+    <row r="5480">
+      <c r="A5480" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B5480" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C5480" t="inlineStr">
+        <is>
+          <t>1.0007753813380866</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5480"/>
+  <dimension ref="A1:C5481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93445,6 +93445,23 @@
         </is>
       </c>
     </row>
+    <row r="5481">
+      <c r="A5481" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B5481" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C5481" t="inlineStr">
+        <is>
+          <t>0.9944768953777589</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5504"/>
+  <dimension ref="A1:B5505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55373,6 +55373,14 @@
       </c>
       <c r="B5504" t="inlineStr"/>
     </row>
+    <row r="5505">
+      <c r="A5505" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5505" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5505"/>
+  <dimension ref="A1:B5506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55381,6 +55381,14 @@
       </c>
       <c r="B5505" t="inlineStr"/>
     </row>
+    <row r="5506">
+      <c r="A5506" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5506" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5506"/>
+  <dimension ref="A1:B5507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55389,6 +55389,16 @@
       </c>
       <c r="B5506" t="inlineStr"/>
     </row>
+    <row r="5507">
+      <c r="A5507" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5507" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5507"/>
+  <dimension ref="A1:B5508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55399,6 +55399,14 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5508">
+      <c r="A5508" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B5508" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5508"/>
+  <dimension ref="A1:B5509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55407,6 +55407,14 @@
       </c>
       <c r="B5508" t="inlineStr"/>
     </row>
+    <row r="5509">
+      <c r="A5509" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B5509" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5509"/>
+  <dimension ref="A1:B5510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55415,6 +55415,16 @@
       </c>
       <c r="B5509" t="inlineStr"/>
     </row>
+    <row r="5510">
+      <c r="A5510" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5510" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5510"/>
+  <dimension ref="A1:B5511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55425,6 +55425,16 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5511">
+      <c r="A5511" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5511" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5511"/>
+  <dimension ref="A1:B5512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55435,6 +55435,14 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5512">
+      <c r="A5512" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5512" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5512"/>
+  <dimension ref="A1:B5513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55443,6 +55443,14 @@
       </c>
       <c r="B5512" t="inlineStr"/>
     </row>
+    <row r="5513">
+      <c r="A5513" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5513" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5513"/>
+  <dimension ref="A1:B5514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55451,6 +55451,14 @@
       </c>
       <c r="B5513" t="inlineStr"/>
     </row>
+    <row r="5514">
+      <c r="A5514" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5514" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5514"/>
+  <dimension ref="A1:B5515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55459,6 +55459,14 @@
       </c>
       <c r="B5514" t="inlineStr"/>
     </row>
+    <row r="5515">
+      <c r="A5515" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5515" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5515"/>
+  <dimension ref="A1:B5516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54838,7 +54838,7 @@
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>1.035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5449">
@@ -54848,7 +54848,7 @@
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>1.015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5450">
@@ -54858,7 +54858,7 @@
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>1.008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5451">
@@ -54868,7 +54868,7 @@
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5452">
@@ -54878,7 +54878,7 @@
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5453">
@@ -54888,7 +54888,7 @@
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>1.013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5454">
@@ -54898,7 +54898,7 @@
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>1.008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5455">
@@ -54908,7 +54908,7 @@
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>1.007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5456">
@@ -54918,7 +54918,7 @@
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>1.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5457">
@@ -54938,7 +54938,7 @@
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5459">
@@ -54948,7 +54948,7 @@
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5460">
@@ -54958,7 +54958,7 @@
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5461">
@@ -54968,7 +54968,7 @@
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>1.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5462">
@@ -54978,7 +54978,7 @@
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5463">
@@ -54988,7 +54988,7 @@
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5464">
@@ -54998,7 +54998,7 @@
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5465">
@@ -55008,7 +55008,7 @@
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5466">
@@ -55018,7 +55018,7 @@
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5467">
@@ -55028,7 +55028,7 @@
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>1.001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5468">
@@ -55038,7 +55038,7 @@
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5469">
@@ -55058,7 +55058,7 @@
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5471">
@@ -55068,7 +55068,7 @@
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5472">
@@ -55078,7 +55078,7 @@
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>1.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5473">
@@ -55088,7 +55088,7 @@
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5474">
@@ -55098,7 +55098,7 @@
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>1.007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5475">
@@ -55108,7 +55108,7 @@
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>1.007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5476">
@@ -55118,7 +55118,7 @@
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>1.009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5477">
@@ -55128,7 +55128,7 @@
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>1.006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5478">
@@ -55138,7 +55138,7 @@
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>1.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5479">
@@ -55148,7 +55148,7 @@
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5480">
@@ -55158,7 +55158,7 @@
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>1.001</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="5481">
@@ -55168,7 +55168,7 @@
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="5482">
@@ -55178,7 +55178,7 @@
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5483">
@@ -55188,7 +55188,7 @@
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="5484">
@@ -55198,7 +55198,7 @@
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>0.995</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5485">
@@ -55208,7 +55208,7 @@
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1.003</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5486">
@@ -55218,7 +55218,7 @@
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5487">
@@ -55228,7 +55228,7 @@
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5488">
@@ -55238,7 +55238,7 @@
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>0.995</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="5489">
@@ -55248,7 +55248,7 @@
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5490">
@@ -55258,7 +55258,7 @@
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="5491">
@@ -55267,7 +55267,9 @@
           <t>2025-08-29</t>
         </is>
       </c>
-      <c r="B5491" t="inlineStr"/>
+      <c r="B5491" t="n">
+        <v>0.983</v>
+      </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
@@ -55275,7 +55277,9 @@
           <t>2025-08-30</t>
         </is>
       </c>
-      <c r="B5492" t="inlineStr"/>
+      <c r="B5492" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
@@ -55283,7 +55287,9 @@
           <t>2025-08-31</t>
         </is>
       </c>
-      <c r="B5493" t="inlineStr"/>
+      <c r="B5493" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
@@ -55291,7 +55297,9 @@
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="B5494" t="inlineStr"/>
+      <c r="B5494" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
@@ -55299,7 +55307,9 @@
           <t>2025-09-02</t>
         </is>
       </c>
-      <c r="B5495" t="inlineStr"/>
+      <c r="B5495" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
@@ -55307,7 +55317,9 @@
           <t>2025-09-03</t>
         </is>
       </c>
-      <c r="B5496" t="inlineStr"/>
+      <c r="B5496" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
@@ -55315,7 +55327,9 @@
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="B5497" t="inlineStr"/>
+      <c r="B5497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
@@ -55323,7 +55337,9 @@
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="B5498" t="inlineStr"/>
+      <c r="B5498" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
@@ -55331,7 +55347,9 @@
           <t>2025-09-06</t>
         </is>
       </c>
-      <c r="B5499" t="inlineStr"/>
+      <c r="B5499" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
@@ -55339,7 +55357,9 @@
           <t>2025-09-07</t>
         </is>
       </c>
-      <c r="B5500" t="inlineStr"/>
+      <c r="B5500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
@@ -55347,7 +55367,9 @@
           <t>2025-09-08</t>
         </is>
       </c>
-      <c r="B5501" t="inlineStr"/>
+      <c r="B5501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
@@ -55355,7 +55377,9 @@
           <t>2025-09-09</t>
         </is>
       </c>
-      <c r="B5502" t="inlineStr"/>
+      <c r="B5502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
@@ -55363,7 +55387,9 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="B5503" t="inlineStr"/>
+      <c r="B5503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
@@ -55371,7 +55397,9 @@
           <t>2025-09-11</t>
         </is>
       </c>
-      <c r="B5504" t="inlineStr"/>
+      <c r="B5504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
@@ -55379,7 +55407,9 @@
           <t>2025-09-12</t>
         </is>
       </c>
-      <c r="B5505" t="inlineStr"/>
+      <c r="B5505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
@@ -55387,7 +55417,9 @@
           <t>2025-09-13</t>
         </is>
       </c>
-      <c r="B5506" t="inlineStr"/>
+      <c r="B5506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
@@ -55396,7 +55428,7 @@
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5508">
@@ -55405,7 +55437,9 @@
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="B5508" t="inlineStr"/>
+      <c r="B5508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
@@ -55413,7 +55447,9 @@
           <t>2025-09-16</t>
         </is>
       </c>
-      <c r="B5509" t="inlineStr"/>
+      <c r="B5509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
@@ -55422,7 +55458,7 @@
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5511">
@@ -55432,7 +55468,7 @@
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5512">
@@ -55441,7 +55477,9 @@
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="B5512" t="inlineStr"/>
+      <c r="B5512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
@@ -55449,7 +55487,9 @@
           <t>2025-09-20</t>
         </is>
       </c>
-      <c r="B5513" t="inlineStr"/>
+      <c r="B5513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
@@ -55457,7 +55497,9 @@
           <t>2025-09-21</t>
         </is>
       </c>
-      <c r="B5514" t="inlineStr"/>
+      <c r="B5514" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
@@ -55465,7 +55507,17 @@
           <t>2025-09-22</t>
         </is>
       </c>
-      <c r="B5515" t="inlineStr"/>
+      <c r="B5515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5516">
+      <c r="A5516" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5516" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5516"/>
+  <dimension ref="A1:B5517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54548,7 +54548,7 @@
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>0.998</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5420">
@@ -54558,7 +54558,7 @@
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>1.001</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5421">
@@ -54568,7 +54568,7 @@
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5422">
@@ -54578,7 +54578,7 @@
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="5423">
@@ -54588,7 +54588,7 @@
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="5424">
@@ -54598,7 +54598,7 @@
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5425">
@@ -54608,7 +54608,7 @@
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>0.998</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5426">
@@ -54618,7 +54618,7 @@
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>1.006</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="5427">
@@ -54628,7 +54628,7 @@
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>1.01</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="5428">
@@ -54638,7 +54638,7 @@
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>1.004</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5429">
@@ -54648,7 +54648,7 @@
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>1.002</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5430">
@@ -54658,7 +54658,7 @@
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>1.002</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5431">
@@ -54668,7 +54668,7 @@
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>1.007</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="5432">
@@ -54678,7 +54678,7 @@
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>1.007</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5433">
@@ -54688,7 +54688,7 @@
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>1</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5434">
@@ -54698,7 +54698,7 @@
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>1.006</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5435">
@@ -54708,7 +54708,7 @@
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>1.008</v>
+        <v>1.017</v>
       </c>
     </row>
     <row r="5436">
@@ -54718,7 +54718,7 @@
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>1.003</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5437">
@@ -54728,7 +54728,7 @@
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>1.001</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5438">
@@ -54738,7 +54738,7 @@
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>1.004</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5439">
@@ -54748,7 +54748,7 @@
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>1.003</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5440">
@@ -54758,7 +54758,7 @@
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>1.002</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="5441">
@@ -54768,7 +54768,7 @@
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>1.007</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="5442">
@@ -54778,7 +54778,7 @@
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>1.011</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="5443">
@@ -54788,7 +54788,7 @@
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>1.017</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="5444">
@@ -54798,7 +54798,7 @@
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>1.004</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="5445">
@@ -54808,7 +54808,7 @@
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>1.006</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="5446">
@@ -54818,7 +54818,7 @@
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>1.02</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="5447">
@@ -54828,7 +54828,7 @@
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>1.002</v>
+        <v>1.064</v>
       </c>
     </row>
     <row r="5448">
@@ -54838,7 +54838,7 @@
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>1</v>
+        <v>1.059</v>
       </c>
     </row>
     <row r="5449">
@@ -54848,7 +54848,7 @@
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>1</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="5450">
@@ -54858,7 +54858,7 @@
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="5451">
@@ -54868,7 +54868,7 @@
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5452">
@@ -54878,7 +54878,7 @@
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5453">
@@ -54888,7 +54888,7 @@
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>1</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="5454">
@@ -54898,7 +54898,7 @@
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>1</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="5455">
@@ -54908,7 +54908,7 @@
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>1</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="5456">
@@ -54918,7 +54918,7 @@
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>1</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5457">
@@ -54928,7 +54928,7 @@
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>1</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5458">
@@ -54938,7 +54938,7 @@
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5459">
@@ -54948,7 +54948,7 @@
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>1</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="5460">
@@ -54958,7 +54958,7 @@
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>1</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="5461">
@@ -54968,7 +54968,7 @@
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5462">
@@ -54978,7 +54978,7 @@
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5463">
@@ -54988,7 +54988,7 @@
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="5464">
@@ -54998,7 +54998,7 @@
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="5465">
@@ -55008,7 +55008,7 @@
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>1</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="5466">
@@ -55018,7 +55018,7 @@
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5467">
@@ -55048,7 +55048,7 @@
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>1</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5470">
@@ -55058,7 +55058,7 @@
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5471">
@@ -55068,7 +55068,7 @@
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>1</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5472">
@@ -55078,7 +55078,7 @@
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>1</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5473">
@@ -55088,7 +55088,7 @@
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>1</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="5474">
@@ -55098,7 +55098,7 @@
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>1</v>
+        <v>1.027</v>
       </c>
     </row>
     <row r="5475">
@@ -55108,7 +55108,7 @@
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="5476">
@@ -55118,7 +55118,7 @@
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>1</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="5477">
@@ -55128,7 +55128,7 @@
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>1</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="5478">
@@ -55138,7 +55138,7 @@
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>1</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5479">
@@ -55148,7 +55148,7 @@
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>1</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5480">
@@ -55328,7 +55328,7 @@
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5498">
@@ -55338,7 +55338,7 @@
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="5499">
@@ -55348,7 +55348,7 @@
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5500">
@@ -55358,7 +55358,7 @@
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5501">
@@ -55378,7 +55378,7 @@
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5503">
@@ -55388,7 +55388,7 @@
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5504">
@@ -55398,7 +55398,7 @@
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5505">
@@ -55408,7 +55408,7 @@
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>1</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5506">
@@ -55418,7 +55418,7 @@
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>1</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5507">
@@ -55428,7 +55428,7 @@
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>1</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5508">
@@ -55438,7 +55438,7 @@
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5509">
@@ -55448,7 +55448,7 @@
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5510">
@@ -55458,7 +55458,7 @@
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5511">
@@ -55468,7 +55468,7 @@
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5512">
@@ -55478,7 +55478,7 @@
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>1</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5513">
@@ -55488,7 +55488,7 @@
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>1</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5514">
@@ -55508,7 +55508,7 @@
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="5516">
@@ -55517,7 +55517,17 @@
           <t>2025-09-23</t>
         </is>
       </c>
-      <c r="B5516" t="inlineStr"/>
+      <c r="B5516" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="5517">
+      <c r="A5517" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5517" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5517"/>
+  <dimension ref="A1:B5518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55527,7 +55527,17 @@
           <t>2025-09-24</t>
         </is>
       </c>
-      <c r="B5517" t="inlineStr"/>
+      <c r="B5517" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="5518">
+      <c r="A5518" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5518"/>
+  <dimension ref="A1:B5520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55537,7 +55537,27 @@
           <t>2025-09-25</t>
         </is>
       </c>
-      <c r="B5518" t="inlineStr"/>
+      <c r="B5518" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="5519">
+      <c r="A5519" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5519" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="5520">
+      <c r="A5520" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5520" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5520"/>
+  <dimension ref="A1:B5521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55557,7 +55557,17 @@
           <t>2025-09-27</t>
         </is>
       </c>
-      <c r="B5520" t="inlineStr"/>
+      <c r="B5520" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5521">
+      <c r="A5521" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5521"/>
+  <dimension ref="A1:B5522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55567,7 +55567,17 @@
           <t>2025-09-28</t>
         </is>
       </c>
-      <c r="B5521" t="inlineStr"/>
+      <c r="B5521" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="5522">
+      <c r="A5522" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5522" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5522"/>
+  <dimension ref="A1:B5523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55577,7 +55577,17 @@
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B5522" t="inlineStr"/>
+      <c r="B5522" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="5523">
+      <c r="A5523" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5523" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5523"/>
+  <dimension ref="A1:B5524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55587,7 +55587,17 @@
           <t>2025-09-30</t>
         </is>
       </c>
-      <c r="B5523" t="inlineStr"/>
+      <c r="B5523" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="5524">
+      <c r="A5524" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5524" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5524"/>
+  <dimension ref="A1:B5525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55597,7 +55597,19 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="B5524" t="inlineStr"/>
+      <c r="B5524" t="n">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="5525">
+      <c r="A5525" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5525" t="n">
+        <v>1.008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5525"/>
+  <dimension ref="A1:B5526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55611,6 +55611,14 @@
         <v>1.008</v>
       </c>
     </row>
+    <row r="5526">
+      <c r="A5526" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5526" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5526"/>
+  <dimension ref="A1:B5527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55617,7 +55617,17 @@
           <t>2025-10-03</t>
         </is>
       </c>
-      <c r="B5526" t="inlineStr"/>
+      <c r="B5526" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="5527">
+      <c r="A5527" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5527"/>
+  <dimension ref="A1:B5528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55627,7 +55627,17 @@
           <t>2025-10-04</t>
         </is>
       </c>
-      <c r="B5527" t="inlineStr"/>
+      <c r="B5527" t="n">
+        <v>1.029</v>
+      </c>
+    </row>
+    <row r="5528">
+      <c r="A5528" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5528"/>
+  <dimension ref="A1:B5529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55637,7 +55637,17 @@
           <t>2025-10-05</t>
         </is>
       </c>
-      <c r="B5528" t="inlineStr"/>
+      <c r="B5528" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5529" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5529"/>
+  <dimension ref="A1:B5531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55264,97 +55264,95 @@
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-      <c r="B5491" t="n">
-        <v>0.983</v>
-      </c>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B5491" t="inlineStr"/>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>0.985</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1.005</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>1.001</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>1.003</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B5500" t="n">
@@ -55364,57 +55362,57 @@
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1.01</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1.014</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>1.011</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B5506" t="n">
@@ -55424,117 +55422,117 @@
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>1.007</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>1.01</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1.012</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1.015</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1.009</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>1.008</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>1.009</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>0.995</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>0.993</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>0.989</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5518" t="n">
@@ -55544,110 +55542,130 @@
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>1.005</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>1.011</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>1.018</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>1.022</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>1.008</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>1.038</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>1.029</v>
+        <v>1.038</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>1.033</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5529" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" t="inlineStr">
+        <is>
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="B5529" t="inlineStr"/>
+      <c r="B5530" t="inlineStr"/>
+    </row>
+    <row r="5531">
+      <c r="A5531" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5531" t="n">
+        <v>1.002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5531"/>
+  <dimension ref="A1:B5532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55667,6 +55667,16 @@
         <v>1.002</v>
       </c>
     </row>
+    <row r="5532">
+      <c r="A5532" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5532" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5532"/>
+  <dimension ref="A1:B5533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55677,6 +55677,16 @@
         <v>1.006</v>
       </c>
     </row>
+    <row r="5533">
+      <c r="A5533" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5533" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5533"/>
+  <dimension ref="A1:B5534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55687,6 +55687,16 @@
         <v>1.002</v>
       </c>
     </row>
+    <row r="5534">
+      <c r="A5534" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5534" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5534"/>
+  <dimension ref="A1:B5535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55697,6 +55697,16 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="5535">
+      <c r="A5535" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5535" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5535"/>
+  <dimension ref="A1:B5536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55707,6 +55707,16 @@
         <v>0.991</v>
       </c>
     </row>
+    <row r="5536">
+      <c r="A5536" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5536" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5536"/>
+  <dimension ref="A1:B5537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55717,6 +55717,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5537">
+      <c r="A5537" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5537" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5537"/>
+  <dimension ref="A1:B5538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55727,6 +55727,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5538">
+      <c r="A5538" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5538" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5538"/>
+  <dimension ref="A1:B5539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55737,6 +55737,16 @@
         <v>0.989</v>
       </c>
     </row>
+    <row r="5539">
+      <c r="A5539" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5539" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5539"/>
+  <dimension ref="A1:B5540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55747,6 +55747,16 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5540">
+      <c r="A5540" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5540" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5540"/>
+  <dimension ref="A1:B5545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55757,6 +55757,56 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="5541">
+      <c r="A5541" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5541" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="5542">
+      <c r="A5542" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5542" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5543">
+      <c r="A5543" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5543" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5544">
+      <c r="A5544" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5545">
+      <c r="A5545" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5545" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5545"/>
+  <dimension ref="A1:B5547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55807,6 +55807,26 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5546">
+      <c r="A5546" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5546" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5547">
+      <c r="A5547" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5547" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5547"/>
+  <dimension ref="A1:B5549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55827,6 +55827,26 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="5548">
+      <c r="A5548" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5548" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5549">
+      <c r="A5549" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5549" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5549"/>
+  <dimension ref="A1:B5550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55847,6 +55847,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5550">
+      <c r="A5550" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5550" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5550"/>
+  <dimension ref="A1:B5551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55857,6 +55857,16 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5551">
+      <c r="A5551" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5551" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5551"/>
+  <dimension ref="A1:B5553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55867,6 +55867,26 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5552">
+      <c r="A5552" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5552" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="5553">
+      <c r="A5553" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5553" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5553"/>
+  <dimension ref="A1:B5556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55887,6 +55887,36 @@
         <v>0.997</v>
       </c>
     </row>
+    <row r="5554">
+      <c r="A5554" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5554" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="5555">
+      <c r="A5555" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5555" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5556">
+      <c r="A5556" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5556" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5556"/>
+  <dimension ref="A1:B5557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55917,6 +55917,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5557">
+      <c r="A5557" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5557" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5557"/>
+  <dimension ref="A1:B5558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55927,6 +55927,16 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5558">
+      <c r="A5558" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5558" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5558"/>
+  <dimension ref="A1:B5559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55937,6 +55937,16 @@
         <v>0.993</v>
       </c>
     </row>
+    <row r="5559">
+      <c r="A5559" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5559" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5559"/>
+  <dimension ref="A1:B5560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55947,6 +55947,16 @@
         <v>0.986</v>
       </c>
     </row>
+    <row r="5560">
+      <c r="A5560" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5560" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5560"/>
+  <dimension ref="A1:B5561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55957,6 +55957,16 @@
         <v>0.993</v>
       </c>
     </row>
+    <row r="5561">
+      <c r="A5561" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5561" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5561"/>
+  <dimension ref="A1:B5585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55967,6 +55967,246 @@
         <v>0.992</v>
       </c>
     </row>
+    <row r="5562">
+      <c r="A5562" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5562" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5563" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5564" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="5565">
+      <c r="A5565" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5565" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5566" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5567" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5568" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5569" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5570" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5571">
+      <c r="A5571" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5571" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5572" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="5573">
+      <c r="A5573" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5573" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5574" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5575" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5576" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5577" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5578" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5579" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5580">
+      <c r="A5580" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5580" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5581" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5582">
+      <c r="A5582" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5582" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5583" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5584" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5585">
+      <c r="A5585" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5585" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5585"/>
+  <dimension ref="A1:B5587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56207,6 +56207,26 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="5586">
+      <c r="A5586" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5586" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5587" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5587"/>
+  <dimension ref="A1:B5588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56227,6 +56227,16 @@
         <v>0.991</v>
       </c>
     </row>
+    <row r="5588">
+      <c r="A5588" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5588" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5588"/>
+  <dimension ref="A1:B5590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56237,6 +56237,26 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="5589">
+      <c r="A5589" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5589" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5590">
+      <c r="A5590" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5590" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5590"/>
+  <dimension ref="A1:B5593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56257,6 +56257,36 @@
         <v>0.977</v>
       </c>
     </row>
+    <row r="5591">
+      <c r="A5591" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5591" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5592" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5593" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5593"/>
+  <dimension ref="A1:B5595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56287,6 +56287,26 @@
         <v>0.985</v>
       </c>
     </row>
+    <row r="5594">
+      <c r="A5594" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5594" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="5595">
+      <c r="A5595" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5595" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5595"/>
+  <dimension ref="A1:B5599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56307,6 +56307,46 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5596">
+      <c r="A5596" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5596" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5597">
+      <c r="A5597" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5597" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5598" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5599" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5599"/>
+  <dimension ref="A1:B5601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56347,6 +56347,26 @@
         <v>0.997</v>
       </c>
     </row>
+    <row r="5600">
+      <c r="A5600" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5600" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5601" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5601"/>
+  <dimension ref="A1:B5602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56367,6 +56367,16 @@
         <v>0.992</v>
       </c>
     </row>
+    <row r="5602">
+      <c r="A5602" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5602" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5602"/>
+  <dimension ref="A1:B5603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56377,6 +56377,16 @@
         <v>0.995</v>
       </c>
     </row>
+    <row r="5603">
+      <c r="A5603" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5603" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5603"/>
+  <dimension ref="A1:B5606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56387,6 +56387,36 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5604">
+      <c r="A5604" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5604" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5605" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5606" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5606"/>
+  <dimension ref="A1:B5610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56417,6 +56417,46 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5607">
+      <c r="A5607" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5607" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5608" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5609" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5610" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5610"/>
+  <dimension ref="A1:B5613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56457,6 +56457,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5611">
+      <c r="A5611" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5611" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5612" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5613" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_sth.xlsx
+++ b/data_cripto/btc_sopr_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5613"/>
+  <dimension ref="A1:B5617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56487,6 +56487,46 @@
         <v>0.993</v>
       </c>
     </row>
+    <row r="5614">
+      <c r="A5614" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B5614" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B5615" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B5616" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B5617" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
